--- a/结果/CHB-MIT数据集/SVM分类/标准差/SVM_chb01_biaozhuncha.xlsx
+++ b/结果/CHB-MIT数据集/SVM分类/标准差/SVM_chb01_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C70A81-8044-486A-BC4D-A49A128E05BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE9BA3B-5A35-49FF-86CE-7F37C78B9DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7368" yWindow="2052" windowWidth="15828" windowHeight="10632" activeTab="6" xr2:uid="{FDAD6DBF-9A21-4EB4-8E4E-55CFA6239650}"/>
+    <workbookView xWindow="5904" yWindow="60" windowWidth="15828" windowHeight="12300" activeTab="6" xr2:uid="{FDAD6DBF-9A21-4EB4-8E4E-55CFA6239650}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -1577,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F38A650-D129-4EBF-A7CE-0D41CDF08760}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A24" sqref="A24:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1596,6 +1596,171 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>98.958299999999994</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.958299999999994</v>
+      </c>
+      <c r="B8">
+        <v>97.7273</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>97.916700000000006</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>96.078400000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>98.958299999999994</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>98.275899999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.958299999999994</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>97.7273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>97.916700000000006</v>
+      </c>
+      <c r="B21">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="C21">
+        <v>98.181799999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>97.916700000000006</v>
+      </c>
+      <c r="B26">
+        <v>97.674400000000006</v>
+      </c>
+      <c r="C26">
+        <v>98.113200000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>98.958299999999994</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>97.7273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/CHB-MIT数据集/SVM分类/标准差/SVM_chb01_biaozhuncha.xlsx
+++ b/结果/CHB-MIT数据集/SVM分类/标准差/SVM_chb01_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE9BA3B-5A35-49FF-86CE-7F37C78B9DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAB7619-89FB-43C9-9E9B-BB41B47DF2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5904" yWindow="60" windowWidth="15828" windowHeight="12300" activeTab="6" xr2:uid="{FDAD6DBF-9A21-4EB4-8E4E-55CFA6239650}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDAD6DBF-9A21-4EB4-8E4E-55CFA6239650}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -106,8 +115,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568879F1-76C3-487C-A281-0B7CD243F536}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -606,6 +618,20 @@
       </c>
       <c r="C32">
         <v>87.233999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>90.625006666666664</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>91.778540000000007</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>89.395139999999998</v>
       </c>
     </row>
   </sheetData>
@@ -617,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD2D10D-7D59-49BD-90AE-3CFA2C848753}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -799,6 +825,20 @@
       </c>
       <c r="C32">
         <v>97.777799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>91.180546666666672</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>86.050286666666665</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.271913333333345</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66011D6-C156-4871-90B9-10AC7C289D18}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -991,6 +1031,20 @@
       </c>
       <c r="C32">
         <v>97.674400000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>91.388886666666664</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>85.192040000000006</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>97.518880000000024</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A835679D-918D-40A6-BF52-D7924AD19D10}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1237,20 @@
       </c>
       <c r="C32">
         <v>97.777799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>97.847220000000007</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.775733333333335</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>98.86869333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3C4ACC-5E3F-41D8-9B8D-304FF0686B8B}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1375,6 +1443,20 @@
       </c>
       <c r="C32">
         <v>93.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>94.930546666666672</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.046326666666658</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>94.078286666666671</v>
       </c>
     </row>
   </sheetData>
@@ -1385,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F1CCE1-90F0-40D5-A916-9A21C50E8F60}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1567,6 +1649,20 @@
       </c>
       <c r="C32">
         <v>90.384600000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>93.194446666666664</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.552993333333362</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>89.924919999999986</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F38A650-D129-4EBF-A7CE-0D41CDF08760}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1761,6 +1857,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>99.236106666666672</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>99.53084666666669</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>98.940259999999995</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
